--- a/original_data.xlsx
+++ b/original_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gross weight\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gross_weight\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA976F04-BC2B-4754-AA30-C2F2ACFDB49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23EAA25-F1AD-4F55-AD4F-0923E2410ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="1538">
   <si>
     <t>209L</t>
   </si>
@@ -12614,607 +12614,609 @@
     <t>Gadus S2 V220 2  12*0.4kg/CTN</t>
   </si>
   <si>
+    <t>FG125</t>
+  </si>
+  <si>
+    <t>Tellus S4 VX 32 1*208L</t>
+  </si>
+  <si>
+    <t>208L/DRUM</t>
+  </si>
+  <si>
+    <t>FG126</t>
+  </si>
+  <si>
+    <t>Omala S4WE 460 1*209L</t>
+  </si>
+  <si>
+    <t>FG127</t>
+  </si>
+  <si>
+    <t>Gadus S2 A320 2 1*18KG</t>
+  </si>
+  <si>
+    <t>FG128</t>
+  </si>
+  <si>
+    <t>Gadus S2 V100 2 1*18KG</t>
+  </si>
+  <si>
+    <t>FG129</t>
+  </si>
+  <si>
+    <t>Gadus S2 V100 3 1*18KG</t>
+  </si>
+  <si>
+    <t>FG130</t>
+  </si>
+  <si>
+    <t>Gadus S2 V220AD 2 1*18KG</t>
+  </si>
+  <si>
+    <t>FG131</t>
+  </si>
+  <si>
+    <t>180KG/DRUM</t>
+  </si>
+  <si>
+    <t>FG132</t>
+  </si>
+  <si>
+    <t>Tellus S3 V 46 1*209L</t>
+  </si>
+  <si>
+    <t>FG133</t>
+  </si>
+  <si>
+    <t>Tellus S4 VX 32 1*208.1L</t>
+  </si>
+  <si>
+    <t>208.1L/DRUM</t>
+  </si>
+  <si>
+    <t>FG134</t>
+  </si>
+  <si>
+    <t>Spirax S2 A 140 1*209L</t>
+  </si>
+  <si>
+    <t>FG135</t>
+  </si>
+  <si>
+    <t>Turbo T 32 1*209L</t>
+  </si>
+  <si>
+    <t>FG136</t>
+  </si>
+  <si>
+    <t>Gadinia S3 30 1*209L</t>
+  </si>
+  <si>
+    <t>FG137</t>
+  </si>
+  <si>
+    <t>Spirax S3 ALS 85W-90 1*20L</t>
+  </si>
+  <si>
+    <t>FG138</t>
+  </si>
+  <si>
+    <t>Naturelle S2 Hydraulic Fluid 46 1*209L</t>
+  </si>
+  <si>
+    <t>FG139</t>
+  </si>
+  <si>
+    <t>Gadus S5 V100 2 1*18KG</t>
+  </si>
+  <si>
+    <t>FG140</t>
+  </si>
+  <si>
+    <t>Tellus S2 VX 32 1*20L</t>
+  </si>
+  <si>
+    <t>FG141</t>
+  </si>
+  <si>
+    <t>Tellus S2 VX 46 1*20L</t>
+  </si>
+  <si>
+    <t>FG142</t>
+  </si>
+  <si>
+    <t>Gadus S2 V20XKD 0 1*180KG</t>
+  </si>
+  <si>
+    <t>FG143</t>
+  </si>
+  <si>
+    <t>Helix Ultra 0W-40 1*209L</t>
+  </si>
+  <si>
+    <t>FG144</t>
+  </si>
+  <si>
+    <t>Omala S4 GXV 68 1*209L</t>
+  </si>
+  <si>
+    <t>FG145</t>
+  </si>
+  <si>
+    <t>FG146</t>
+  </si>
+  <si>
+    <t>Shell Omala S4 WE 150 1*20L</t>
+  </si>
+  <si>
+    <t>FG147</t>
+  </si>
+  <si>
+    <t>FG148</t>
+  </si>
+  <si>
+    <t>170KG/DRUM</t>
+  </si>
+  <si>
+    <t>FG149</t>
+  </si>
+  <si>
+    <t>FG150</t>
+  </si>
+  <si>
+    <t>Shell Turbo S4 X32 1*209L</t>
+  </si>
+  <si>
+    <t>FG151</t>
+  </si>
+  <si>
+    <t>Shell Spirax S6 AXME 75W-90 1*20L</t>
+  </si>
+  <si>
+    <t>FG152</t>
+  </si>
+  <si>
+    <t>Shell Spirax S6 GXME 75W-80 1*209L</t>
+  </si>
+  <si>
+    <t>FG153</t>
+  </si>
+  <si>
+    <t>Shell Spirax S6 GXME 75W-80 1*20L</t>
+  </si>
+  <si>
+    <t>FG154</t>
+  </si>
+  <si>
+    <t>Shell Spirax S5 ATE 75W-90 1*209L</t>
+  </si>
+  <si>
+    <t>FG155</t>
+  </si>
+  <si>
+    <t>FG156</t>
+  </si>
+  <si>
+    <t>Shell Spirax S6 ATF X 4*4L</t>
+  </si>
+  <si>
+    <t>ADVANCE</t>
+  </si>
+  <si>
+    <t>FG157</t>
+  </si>
+  <si>
+    <t>Shell Advance 4T AX7 15W-50 12*1L</t>
+  </si>
+  <si>
+    <t>FG158</t>
+  </si>
+  <si>
+    <t>Shell Advance 4T Ultra 10W-40 12*1L</t>
+  </si>
+  <si>
+    <t>FG159</t>
+  </si>
+  <si>
+    <t>Shell Spirax S2 A 85W-140 1*209L</t>
+  </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
+  <si>
+    <t>FG160</t>
+  </si>
+  <si>
+    <t>Shell Refrigeration Oil S4 FR-V 46 1*209L</t>
+  </si>
+  <si>
+    <t>FG161</t>
+  </si>
+  <si>
+    <t>Shell Gadinia S3 40 1*20L</t>
+  </si>
+  <si>
+    <t>Malleus</t>
+  </si>
+  <si>
+    <t>FG162</t>
+  </si>
+  <si>
+    <t>190KG/DRUM</t>
+  </si>
+  <si>
+    <t>FG163</t>
+  </si>
+  <si>
+    <t>Shell Helix HX8 ECT 5W-30 1*209L</t>
+  </si>
+  <si>
+    <t>FG164</t>
+  </si>
+  <si>
+    <t>Shell Helix HX7 ECT 5W-30 1*209L</t>
+  </si>
+  <si>
+    <t>FG165</t>
+  </si>
+  <si>
+    <t>Shell Tellus S2 MX 100 1*209L</t>
+  </si>
+  <si>
+    <t>FG166</t>
+  </si>
+  <si>
+    <t>Shell Tellus S4 ME 32 1*209L</t>
+  </si>
+  <si>
+    <t>FG167</t>
+  </si>
+  <si>
+    <t>3*5L/CTN</t>
+  </si>
+  <si>
+    <t>FG168</t>
+  </si>
+  <si>
+    <t>Shell Spirax S3 G 80W-90 1*209L</t>
+  </si>
+  <si>
+    <t>供应商编码</t>
+  </si>
+  <si>
+    <t>供应商名称(供)</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>客户编码</t>
+  </si>
+  <si>
+    <t>客户名称(销)</t>
+  </si>
+  <si>
+    <t>GSS00001</t>
+  </si>
+  <si>
+    <t>GLOBAL MARINE SOLUTIONS</t>
+  </si>
+  <si>
+    <t>GSS</t>
+  </si>
+  <si>
+    <t>GSSKH0001</t>
+  </si>
+  <si>
+    <t>East Pole Co.,Ltd</t>
+  </si>
+  <si>
+    <t>GSS00002</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>GSSKH0002</t>
+  </si>
+  <si>
+    <t>'STM-SOLUTIONS'' LLC</t>
+  </si>
+  <si>
+    <t>GSS00003</t>
+  </si>
+  <si>
+    <t>HKVM</t>
+  </si>
+  <si>
+    <t>GSSKH0003</t>
+  </si>
+  <si>
+    <t>GT(正航)</t>
+  </si>
+  <si>
+    <t>GSS00004</t>
+  </si>
+  <si>
+    <t>(VIC)輝聯捷運國際(香港)有限公司</t>
+  </si>
+  <si>
+    <t>GSS00005</t>
+  </si>
+  <si>
+    <t>(AL)ALRIGHT INTERNATIONAL SDN.BHD.</t>
+  </si>
+  <si>
+    <t>GSS00006</t>
+  </si>
+  <si>
+    <t>GO DISTRIBUTION. UAB</t>
+  </si>
+  <si>
+    <t>立陶宛-供应商</t>
+  </si>
+  <si>
+    <t>GSS00007</t>
+  </si>
+  <si>
+    <t>Containity UAB</t>
+  </si>
+  <si>
+    <t>运输商</t>
+  </si>
+  <si>
+    <t>GSS00008</t>
+  </si>
+  <si>
+    <t>PREMIUM AUTOMOBILES PTE LTD</t>
+  </si>
+  <si>
+    <t>新加坡-供应商</t>
+  </si>
+  <si>
+    <t>GSS00009</t>
+  </si>
+  <si>
+    <t>OTV International GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>德国-供应商</t>
+  </si>
+  <si>
+    <t>GSS00010</t>
+  </si>
+  <si>
+    <t>VELOTAC INTERNATIONAL PTE LTD</t>
+  </si>
+  <si>
+    <t>GSS00011</t>
+  </si>
+  <si>
+    <t>Shell Hong Kong Ltd</t>
+  </si>
+  <si>
+    <t>GSS00012</t>
+  </si>
+  <si>
+    <t>DRACO LOGISTICS COMPANY LIMITED</t>
+  </si>
+  <si>
+    <t>GT00001</t>
+  </si>
+  <si>
+    <t>GTKH0001</t>
+  </si>
+  <si>
+    <t>GT00002</t>
+  </si>
+  <si>
+    <t>HONGKONG VM INDUSTRIAL CO., LIMITED</t>
+  </si>
+  <si>
+    <t>GTKH0002</t>
+  </si>
+  <si>
+    <t>GSS International Co., Limited</t>
+  </si>
+  <si>
+    <t>GT00003</t>
+  </si>
+  <si>
+    <t>ALRIGHT INTERNATIONAL SDN.BHD.</t>
+  </si>
+  <si>
+    <t>GTKH0003</t>
+  </si>
+  <si>
+    <t>星越实业(珠海)有限公司</t>
+  </si>
+  <si>
+    <t>GT00004</t>
+  </si>
+  <si>
+    <t>GT00005</t>
+  </si>
+  <si>
+    <t>(GB)GLOBAL MARINE SOLUTIONS</t>
+  </si>
+  <si>
+    <t>GT00006</t>
+  </si>
+  <si>
+    <t>AR00001</t>
+  </si>
+  <si>
+    <t>Shell Malaysia Trading Sdn Bhd</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>ARKH0001</t>
+  </si>
+  <si>
+    <t>GT International Shipping Manager Limited</t>
+  </si>
+  <si>
+    <t>AR00002</t>
+  </si>
+  <si>
+    <t>FM GLOBAL LOGISTICS (M) SDN.BHD</t>
+  </si>
+  <si>
+    <t>ARKH0002</t>
+  </si>
+  <si>
+    <t>ARKH0003</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>VM00001</t>
+  </si>
+  <si>
+    <t>VCOM HONG KONG LIMITED</t>
+  </si>
+  <si>
+    <t>VMKH0001</t>
+  </si>
+  <si>
+    <t>VM00002</t>
+  </si>
+  <si>
+    <t>Intech (HK) Development Limited</t>
+  </si>
+  <si>
+    <t>VMKH0002</t>
+  </si>
+  <si>
+    <t>GOSTAR INDUSTRIAL CO.LTD</t>
+  </si>
+  <si>
+    <t>VM00003</t>
+  </si>
+  <si>
+    <t>VMKH0003</t>
+  </si>
+  <si>
+    <t>VM00004</t>
+  </si>
+  <si>
+    <t>VMKH0004</t>
+  </si>
+  <si>
+    <t>ZY Technology Co., Ltd(正顺/正云)</t>
+  </si>
+  <si>
+    <t>VM00005</t>
+  </si>
+  <si>
+    <t>ADC Worldwide (M) Sdn Bhd</t>
+  </si>
+  <si>
+    <t>VM00006</t>
+  </si>
+  <si>
+    <t>JIAQINGYUAN LIMITED</t>
+  </si>
+  <si>
+    <t>VM00007</t>
+  </si>
+  <si>
+    <t>HK SONGZINTLENTERPRISE LTD</t>
+  </si>
+  <si>
+    <t>主体对接公司名称</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>网址</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>Skype</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>Payment term:交易方式</t>
+  </si>
+  <si>
+    <t>Beneficiary’s bank:收款银行</t>
+  </si>
+  <si>
+    <t>Beneficiary’s bank address:收款银行地址</t>
+  </si>
+  <si>
+    <t>Beneficiary’s A/C No:收款账号</t>
+  </si>
+  <si>
+    <t>Swift-code联行号</t>
+  </si>
+  <si>
+    <t>Bank code: 银行号</t>
+  </si>
+  <si>
+    <t>销售客户编码</t>
+  </si>
+  <si>
+    <t>销售公司</t>
+  </si>
+  <si>
     <t>12*0.4kg/CTN</t>
-  </si>
-  <si>
-    <t>FG125</t>
-  </si>
-  <si>
-    <t>Tellus S4 VX 32 1*208L</t>
-  </si>
-  <si>
-    <t>208L/DRUM</t>
-  </si>
-  <si>
-    <t>FG126</t>
-  </si>
-  <si>
-    <t>Omala S4WE 460 1*209L</t>
-  </si>
-  <si>
-    <t>FG127</t>
-  </si>
-  <si>
-    <t>Gadus S2 A320 2 1*18KG</t>
-  </si>
-  <si>
-    <t>FG128</t>
-  </si>
-  <si>
-    <t>Gadus S2 V100 2 1*18KG</t>
-  </si>
-  <si>
-    <t>FG129</t>
-  </si>
-  <si>
-    <t>Gadus S2 V100 3 1*18KG</t>
-  </si>
-  <si>
-    <t>FG130</t>
-  </si>
-  <si>
-    <t>Gadus S2 V220AD 2 1*18KG</t>
-  </si>
-  <si>
-    <t>FG131</t>
-  </si>
-  <si>
-    <t>Gadus S3 V220C 2# 1*180KG</t>
-  </si>
-  <si>
-    <t>180KG/DRUM</t>
-  </si>
-  <si>
-    <t>FG132</t>
-  </si>
-  <si>
-    <t>Tellus S3 V 46 1*209L</t>
-  </si>
-  <si>
-    <t>FG133</t>
-  </si>
-  <si>
-    <t>Tellus S4 VX 32 1*208.1L</t>
-  </si>
-  <si>
-    <t>208.1L/DRUM</t>
-  </si>
-  <si>
-    <t>FG134</t>
-  </si>
-  <si>
-    <t>Spirax S2 A 140 1*209L</t>
-  </si>
-  <si>
-    <t>FG135</t>
-  </si>
-  <si>
-    <t>Turbo T 32 1*209L</t>
-  </si>
-  <si>
-    <t>FG136</t>
-  </si>
-  <si>
-    <t>Gadinia S3 30 1*209L</t>
-  </si>
-  <si>
-    <t>FG137</t>
-  </si>
-  <si>
-    <t>Spirax S3 ALS 85W-90 1*20L</t>
-  </si>
-  <si>
-    <t>FG138</t>
-  </si>
-  <si>
-    <t>Naturelle S2 Hydraulic Fluid 46 1*209L</t>
-  </si>
-  <si>
-    <t>FG139</t>
-  </si>
-  <si>
-    <t>Gadus S5 V100 2 1*18KG</t>
-  </si>
-  <si>
-    <t>FG140</t>
-  </si>
-  <si>
-    <t>Tellus S2 VX 32 1*20L</t>
-  </si>
-  <si>
-    <t>FG141</t>
-  </si>
-  <si>
-    <t>Tellus S2 VX 46 1*20L</t>
-  </si>
-  <si>
-    <t>FG142</t>
-  </si>
-  <si>
-    <t>Gadus S2 V20XKD 0 1*180KG</t>
-  </si>
-  <si>
-    <t>FG143</t>
-  </si>
-  <si>
-    <t>Helix Ultra 0W-40 1*209L</t>
-  </si>
-  <si>
-    <t>FG144</t>
-  </si>
-  <si>
-    <t>Omala S4 GXV 68 1*209L</t>
-  </si>
-  <si>
-    <t>FG145</t>
-  </si>
-  <si>
-    <t>Shell Gadus S3 V220C 2 12*0.4kg/CTN</t>
-  </si>
-  <si>
-    <t>FG146</t>
-  </si>
-  <si>
-    <t>Shell Omala S4 WE 150 1*20L</t>
-  </si>
-  <si>
-    <t>FG147</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadus S3 V220C 2 1*180KG</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shell Gadus S3 V220C 2 0.4KG*12</t>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Shell Gadus S3 V460D 2 1*180KG</t>
-  </si>
-  <si>
-    <t>FG148</t>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Shell Gadus S5 V150XKD 0/00 1*170kg</t>
-  </si>
-  <si>
-    <t>170KG/DRUM</t>
-  </si>
-  <si>
-    <t>FG149</t>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Shell Gadus S5 V150XKD 1 1*170kg</t>
-  </si>
-  <si>
-    <t>FG150</t>
-  </si>
-  <si>
-    <t>Shell Turbo S4 X32 1*209L</t>
-  </si>
-  <si>
-    <t>FG151</t>
-  </si>
-  <si>
-    <t>Shell Spirax S6 AXME 75W-90 1*20L</t>
-  </si>
-  <si>
-    <t>FG152</t>
-  </si>
-  <si>
-    <t>Shell Spirax S6 GXME 75W-80 1*209L</t>
-  </si>
-  <si>
-    <t>FG153</t>
-  </si>
-  <si>
-    <t>Shell Spirax S6 GXME 75W-80 1*20L</t>
-  </si>
-  <si>
-    <t>FG154</t>
-  </si>
-  <si>
-    <t>Shell Spirax S5 ATE 75W-90 1*209L</t>
-  </si>
-  <si>
-    <t>FG155</t>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Shell Gadus S4 OGXK 1*180KG</t>
-  </si>
-  <si>
-    <t>FG156</t>
-  </si>
-  <si>
-    <t>Shell Spirax S6 ATF X 4*4L</t>
-  </si>
-  <si>
-    <t>ADVANCE</t>
-  </si>
-  <si>
-    <t>FG157</t>
-  </si>
-  <si>
-    <t>Shell Advance 4T AX7 15W-50 12*1L</t>
-  </si>
-  <si>
-    <t>FG158</t>
-  </si>
-  <si>
-    <t>Shell Advance 4T Ultra 10W-40 12*1L</t>
-  </si>
-  <si>
-    <t>FG159</t>
-  </si>
-  <si>
-    <t>Shell Spirax S2 A 85W-140 1*209L</t>
-  </si>
-  <si>
-    <t>Refrigeration</t>
-  </si>
-  <si>
-    <t>FG160</t>
-  </si>
-  <si>
-    <t>Shell Refrigeration Oil S4 FR-V 46 1*209L</t>
-  </si>
-  <si>
-    <t>FG161</t>
-  </si>
-  <si>
-    <t>Shell Gadinia S3 40 1*20L</t>
-  </si>
-  <si>
-    <t>Malleus</t>
-  </si>
-  <si>
-    <t>FG162</t>
-  </si>
-  <si>
-    <t>Shell Malleus GL 3500 1*190KG</t>
-  </si>
-  <si>
-    <t>190KG/DRUM</t>
-  </si>
-  <si>
-    <t>FG163</t>
-  </si>
-  <si>
-    <t>Shell Helix HX8 ECT 5W-30 1*209L</t>
-  </si>
-  <si>
-    <t>FG164</t>
-  </si>
-  <si>
-    <t>Shell Helix HX7 ECT 5W-30 1*209L</t>
-  </si>
-  <si>
-    <t>FG165</t>
-  </si>
-  <si>
-    <t>Shell Tellus S2 MX 100 1*209L</t>
-  </si>
-  <si>
-    <t>FG166</t>
-  </si>
-  <si>
-    <t>Shell Tellus S4 ME 32 1*209L</t>
-  </si>
-  <si>
-    <t>FG167</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shell Shell Malleus GL 3500 1*190KG</t>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Shell Helix HX8 X 5W-30 3*5L</t>
-  </si>
-  <si>
-    <t>3*5L/CTN</t>
-  </si>
-  <si>
-    <t>FG168</t>
-  </si>
-  <si>
-    <t>Shell Spirax S3 G 80W-90 1*209L</t>
-  </si>
-  <si>
-    <t>供应商编码</t>
-  </si>
-  <si>
-    <t>供应商名称(供)</t>
-  </si>
-  <si>
-    <t>部门</t>
-  </si>
-  <si>
-    <t>客户编码</t>
-  </si>
-  <si>
-    <t>客户名称(销)</t>
-  </si>
-  <si>
-    <t>GSS00001</t>
-  </si>
-  <si>
-    <t>GLOBAL MARINE SOLUTIONS</t>
-  </si>
-  <si>
-    <t>GSS</t>
-  </si>
-  <si>
-    <t>GSSKH0001</t>
-  </si>
-  <si>
-    <t>East Pole Co.,Ltd</t>
-  </si>
-  <si>
-    <t>GSS00002</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>GSSKH0002</t>
-  </si>
-  <si>
-    <t>'STM-SOLUTIONS'' LLC</t>
-  </si>
-  <si>
-    <t>GSS00003</t>
-  </si>
-  <si>
-    <t>HKVM</t>
-  </si>
-  <si>
-    <t>GSSKH0003</t>
-  </si>
-  <si>
-    <t>GT(正航)</t>
-  </si>
-  <si>
-    <t>GSS00004</t>
-  </si>
-  <si>
-    <t>(VIC)輝聯捷運國際(香港)有限公司</t>
-  </si>
-  <si>
-    <t>GSS00005</t>
-  </si>
-  <si>
-    <t>(AL)ALRIGHT INTERNATIONAL SDN.BHD.</t>
-  </si>
-  <si>
-    <t>GSS00006</t>
-  </si>
-  <si>
-    <t>GO DISTRIBUTION. UAB</t>
-  </si>
-  <si>
-    <t>立陶宛-供应商</t>
-  </si>
-  <si>
-    <t>GSS00007</t>
-  </si>
-  <si>
-    <t>Containity UAB</t>
-  </si>
-  <si>
-    <t>运输商</t>
-  </si>
-  <si>
-    <t>GSS00008</t>
-  </si>
-  <si>
-    <t>PREMIUM AUTOMOBILES PTE LTD</t>
-  </si>
-  <si>
-    <t>新加坡-供应商</t>
-  </si>
-  <si>
-    <t>GSS00009</t>
-  </si>
-  <si>
-    <t>OTV International GmbH &amp; Co. KG</t>
-  </si>
-  <si>
-    <t>德国-供应商</t>
-  </si>
-  <si>
-    <t>GSS00010</t>
-  </si>
-  <si>
-    <t>VELOTAC INTERNATIONAL PTE LTD</t>
-  </si>
-  <si>
-    <t>GSS00011</t>
-  </si>
-  <si>
-    <t>Shell Hong Kong Ltd</t>
-  </si>
-  <si>
-    <t>GSS00012</t>
-  </si>
-  <si>
-    <t>DRACO LOGISTICS COMPANY LIMITED</t>
-  </si>
-  <si>
-    <t>GT00001</t>
-  </si>
-  <si>
-    <t>GTKH0001</t>
-  </si>
-  <si>
-    <t>GT00002</t>
-  </si>
-  <si>
-    <t>HONGKONG VM INDUSTRIAL CO., LIMITED</t>
-  </si>
-  <si>
-    <t>GTKH0002</t>
-  </si>
-  <si>
-    <t>GSS International Co., Limited</t>
-  </si>
-  <si>
-    <t>GT00003</t>
-  </si>
-  <si>
-    <t>ALRIGHT INTERNATIONAL SDN.BHD.</t>
-  </si>
-  <si>
-    <t>GTKH0003</t>
-  </si>
-  <si>
-    <t>星越实业(珠海)有限公司</t>
-  </si>
-  <si>
-    <t>GT00004</t>
-  </si>
-  <si>
-    <t>GT00005</t>
-  </si>
-  <si>
-    <t>(GB)GLOBAL MARINE SOLUTIONS</t>
-  </si>
-  <si>
-    <t>GT00006</t>
-  </si>
-  <si>
-    <t>AR00001</t>
-  </si>
-  <si>
-    <t>Shell Malaysia Trading Sdn Bhd</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>ARKH0001</t>
-  </si>
-  <si>
-    <t>GT International Shipping Manager Limited</t>
-  </si>
-  <si>
-    <t>AR00002</t>
-  </si>
-  <si>
-    <t>FM GLOBAL LOGISTICS (M) SDN.BHD</t>
-  </si>
-  <si>
-    <t>ARKH0002</t>
-  </si>
-  <si>
-    <t>ARKH0003</t>
-  </si>
-  <si>
-    <t>ADC</t>
-  </si>
-  <si>
-    <t>VM00001</t>
-  </si>
-  <si>
-    <t>VCOM HONG KONG LIMITED</t>
-  </si>
-  <si>
-    <t>VMKH0001</t>
-  </si>
-  <si>
-    <t>VM00002</t>
-  </si>
-  <si>
-    <t>Intech (HK) Development Limited</t>
-  </si>
-  <si>
-    <t>VMKH0002</t>
-  </si>
-  <si>
-    <t>GOSTAR INDUSTRIAL CO.LTD</t>
-  </si>
-  <si>
-    <t>VM00003</t>
-  </si>
-  <si>
-    <t>VMKH0003</t>
-  </si>
-  <si>
-    <t>VM00004</t>
-  </si>
-  <si>
-    <t>VMKH0004</t>
-  </si>
-  <si>
-    <t>ZY Technology Co., Ltd(正顺/正云)</t>
-  </si>
-  <si>
-    <t>VM00005</t>
-  </si>
-  <si>
-    <t>ADC Worldwide (M) Sdn Bhd</t>
-  </si>
-  <si>
-    <t>VM00006</t>
-  </si>
-  <si>
-    <t>JIAQINGYUAN LIMITED</t>
-  </si>
-  <si>
-    <t>VM00007</t>
-  </si>
-  <si>
-    <t>HK SONGZINTLENTERPRISE LTD</t>
-  </si>
-  <si>
-    <t>主体对接公司名称</t>
-  </si>
-  <si>
-    <t>公司</t>
-  </si>
-  <si>
-    <t>地区</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>职位</t>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>网址</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>Skype</t>
-  </si>
-  <si>
-    <t>WhatsApp</t>
-  </si>
-  <si>
-    <t>产品</t>
-  </si>
-  <si>
-    <t>Payment term:交易方式</t>
-  </si>
-  <si>
-    <t>Beneficiary’s bank:收款银行</t>
-  </si>
-  <si>
-    <t>Beneficiary’s bank address:收款银行地址</t>
-  </si>
-  <si>
-    <t>Beneficiary’s A/C No:收款账号</t>
-  </si>
-  <si>
-    <t>Swift-code联行号</t>
-  </si>
-  <si>
-    <t>Bank code: 银行号</t>
-  </si>
-  <si>
-    <t>销售客户编码</t>
-  </si>
-  <si>
-    <t>销售公司</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>NaN</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -13223,10 +13225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0.00000000_ ;_ * \-#,##0.00000000_ ;_ * &quot;-&quot;????????_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00000000_ ;_ * \-#,##0.00000000_ ;_ * &quot;-&quot;????????_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -13241,12 +13243,14 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -13264,6 +13268,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -13277,12 +13282,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="华文中宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文中宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -13609,7 +13616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13679,7 +13686,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13688,7 +13695,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13706,19 +13713,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13727,7 +13734,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13739,10 +13746,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -13784,7 +13791,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13793,7 +13800,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -13806,17 +13813,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13870,7 +13877,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1">
@@ -13878,6 +13885,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14799,48 +14809,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="34.9" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="50"/>
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
       <c r="R1" s="50"/>
       <c r="S1" s="50"/>
       <c r="T1" s="50"/>
-      <c r="V1" s="97" t="s">
+      <c r="V1" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
       <c r="AB1" s="50"/>
       <c r="AC1" s="50"/>
       <c r="AD1" s="50"/>
-      <c r="AF1" s="97" t="s">
+      <c r="AF1" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
+      <c r="AG1" s="98"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
     </row>
     <row r="2" spans="1:40" s="45" customFormat="1" ht="14.1" customHeight="1">
       <c r="A2" s="51" t="s">
@@ -24128,11 +24138,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I162" sqref="I162"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -24182,7 +24193,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>1067</v>
       </c>
@@ -24210,7 +24221,7 @@
         <v>14.318</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>1071</v>
       </c>
@@ -24238,7 +24249,7 @@
         <v>199.45599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>1075</v>
       </c>
@@ -24261,10 +24272,10 @@
       </c>
       <c r="H4" s="33">
         <f>G4+14.7</f>
-        <v>200.71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>200.70999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A5" s="31" t="s">
         <v>1078</v>
       </c>
@@ -24292,7 +24303,7 @@
         <v>19.14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A6" s="31" t="s">
         <v>1082</v>
       </c>
@@ -24315,7 +24326,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A7" s="31" t="s">
         <v>1082</v>
       </c>
@@ -24338,7 +24349,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>1082</v>
       </c>
@@ -24361,7 +24372,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>1090</v>
       </c>
@@ -24387,7 +24398,7 @@
         <v>192.14099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A10" s="31" t="s">
         <v>1093</v>
       </c>
@@ -24412,7 +24423,7 @@
       </c>
       <c r="H10" s="33">
         <f t="shared" si="2"/>
-        <v>198.82900000000001</v>
+        <v>198.82899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -24438,7 +24449,7 @@
         <v>194.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>1093</v>
       </c>
@@ -24467,7 +24478,7 @@
         <v>550049536</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A13" s="31" t="s">
         <v>1093</v>
       </c>
@@ -24490,10 +24501,10 @@
       </c>
       <c r="H13" s="33">
         <f t="shared" ref="H13:H15" si="4">G13+1.78</f>
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A14" s="31" t="s">
         <v>1078</v>
       </c>
@@ -24519,7 +24530,7 @@
         <v>19.760000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>1078</v>
       </c>
@@ -24542,13 +24553,13 @@
       </c>
       <c r="H15" s="33">
         <f t="shared" si="4"/>
-        <v>19.239999999999998</v>
+        <v>19.240000000000002</v>
       </c>
       <c r="J15" s="24">
         <v>550024963</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A16" s="31" t="s">
         <v>1071</v>
       </c>
@@ -24571,10 +24582,10 @@
       </c>
       <c r="H16" s="33">
         <f t="shared" ref="H16:H19" si="6">G16+14.7</f>
-        <v>195.27600000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>195.27599999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A17" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24599,10 +24610,10 @@
       </c>
       <c r="H17" s="33">
         <f t="shared" si="6"/>
-        <v>200.91900000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>200.91899999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A18" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24630,7 +24641,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A19" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24658,7 +24669,7 @@
         <v>202.173</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24681,10 +24692,10 @@
       </c>
       <c r="H20" s="33">
         <f t="shared" si="8"/>
-        <v>19.72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>19.720000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24710,7 +24721,7 @@
         <v>202.173</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24733,13 +24744,13 @@
       </c>
       <c r="H22" s="33">
         <f t="shared" si="8"/>
-        <v>19.72</v>
+        <v>19.720000000000002</v>
       </c>
       <c r="J22" s="24">
         <v>550041471</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A23" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24768,7 +24779,7 @@
         <v>550041493</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A24" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24787,14 +24798,14 @@
       </c>
       <c r="G24" s="32">
         <f>20*F24</f>
-        <v>18.059999999999999</v>
+        <v>18.060000000000002</v>
       </c>
       <c r="H24" s="33">
         <f>G24+1.78</f>
-        <v>19.84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>19.840000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A25" s="31" t="s">
         <v>1126</v>
       </c>
@@ -24819,10 +24830,10 @@
       </c>
       <c r="H25" s="33">
         <f t="shared" si="10"/>
-        <v>193.60400000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>193.60399999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A26" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24850,7 +24861,7 @@
         <v>197.99299999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A27" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24875,10 +24886,10 @@
       </c>
       <c r="H27" s="33">
         <f t="shared" si="10"/>
-        <v>198.82900000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>198.82899999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A28" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24903,10 +24914,10 @@
       </c>
       <c r="H28" s="33">
         <f t="shared" si="10"/>
-        <v>199.24700000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>199.24699999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A29" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24929,10 +24940,10 @@
       </c>
       <c r="H29" s="33">
         <f t="shared" si="10"/>
-        <v>194.858</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>194.85799999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A30" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24957,10 +24968,10 @@
       </c>
       <c r="H30" s="33">
         <f t="shared" si="10"/>
-        <v>195.27600000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>195.27599999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A31" s="31" t="s">
         <v>1109</v>
       </c>
@@ -24991,7 +25002,7 @@
         <v>550047461</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A32" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25016,13 +25027,13 @@
       </c>
       <c r="H32" s="33">
         <f t="shared" si="10"/>
-        <v>191.51400000000001</v>
+        <v>191.51399999999998</v>
       </c>
       <c r="I32" s="21" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A33" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25053,7 +25064,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A34" s="31" t="s">
         <v>1093</v>
       </c>
@@ -25081,7 +25092,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A35" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25109,7 +25120,7 @@
         <v>190.05099999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A36" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25137,7 +25148,7 @@
         <v>190.05099999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A37" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25162,13 +25173,13 @@
       </c>
       <c r="H37" s="33">
         <f t="shared" si="12"/>
-        <v>189.84200000000001</v>
+        <v>189.84199999999998</v>
       </c>
       <c r="I37" s="21" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A38" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25196,7 +25207,7 @@
         <v>190.5317</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A39" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25224,7 +25235,7 @@
         <v>190.3227</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A40" s="31" t="s">
         <v>1093</v>
       </c>
@@ -25247,13 +25258,13 @@
       </c>
       <c r="H40" s="33">
         <f t="shared" si="12"/>
-        <v>199.24700000000001</v>
+        <v>199.24699999999999</v>
       </c>
       <c r="J40" s="24">
         <v>550044363</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A41" s="31" t="s">
         <v>1071</v>
       </c>
@@ -25281,7 +25292,7 @@
         <v>14.894</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A42" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25315,7 +25326,7 @@
         <v>550050810</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A43" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25349,7 +25360,7 @@
         <v>550050811</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A44" s="31" t="s">
         <v>1169</v>
       </c>
@@ -25377,7 +25388,7 @@
         <v>193.81299999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A45" s="31" t="s">
         <v>1109</v>
       </c>
@@ -25403,7 +25414,7 @@
         <v>203.636</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A46" s="31" t="s">
         <v>1109</v>
       </c>
@@ -25432,7 +25443,7 @@
         <v>550070040</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A47" s="31" t="s">
         <v>1082</v>
       </c>
@@ -25457,7 +25468,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A48" s="31" t="s">
         <v>1082</v>
       </c>
@@ -25480,7 +25491,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A49" s="31" t="s">
         <v>1109</v>
       </c>
@@ -25499,17 +25510,17 @@
       </c>
       <c r="G49" s="32">
         <f>20/F49</f>
-        <v>18.656716417910399</v>
+        <v>18.656716417910445</v>
       </c>
       <c r="H49" s="33">
         <f>G49+1.78</f>
-        <v>20.4367164179104</v>
+        <v>20.436716417910446</v>
       </c>
       <c r="J49" s="24">
         <v>550070041</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A50" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25540,7 +25551,7 @@
         <v>550058083</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A51" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25571,7 +25582,7 @@
         <v>550058089</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A52" s="31" t="s">
         <v>1093</v>
       </c>
@@ -25596,13 +25607,13 @@
       </c>
       <c r="H52" s="33">
         <f t="shared" ref="H52:H56" si="15">G52+14.7</f>
-        <v>194.858</v>
+        <v>194.85799999999998</v>
       </c>
       <c r="J52" s="24">
         <v>550048300</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A53" s="31" t="s">
         <v>1188</v>
       </c>
@@ -25633,7 +25644,7 @@
         <v>550024968</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A54" s="31" t="s">
         <v>1093</v>
       </c>
@@ -25664,7 +25675,7 @@
         <v>550044584</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A55" s="31" t="s">
         <v>1071</v>
       </c>
@@ -25689,13 +25700,13 @@
       </c>
       <c r="H55" s="33">
         <f t="shared" si="15"/>
-        <v>202.59100000000001</v>
+        <v>202.59099999999998</v>
       </c>
       <c r="J55" s="24">
         <v>550024986</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A56" s="31" t="s">
         <v>1126</v>
       </c>
@@ -25726,7 +25737,7 @@
         <v>550026414</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A57" s="31" t="s">
         <v>1078</v>
       </c>
@@ -25754,7 +25765,7 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A58" s="31" t="s">
         <v>1078</v>
       </c>
@@ -25777,10 +25788,10 @@
       </c>
       <c r="H58" s="33">
         <f t="shared" si="17"/>
-        <v>18.739999999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>18.740000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A59" s="31" t="s">
         <v>1078</v>
       </c>
@@ -25801,14 +25812,14 @@
       </c>
       <c r="G59" s="32">
         <f t="shared" si="16"/>
-        <v>19.760000000000002</v>
+        <v>19.759999999999998</v>
       </c>
       <c r="H59" s="33">
         <f t="shared" si="17"/>
         <v>21.54</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A60" s="31" t="s">
         <v>1126</v>
       </c>
@@ -25836,7 +25847,7 @@
         <v>195.90299999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A61" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25864,7 +25875,7 @@
         <v>10.946</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A62" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25895,7 +25906,7 @@
         <v>550050598</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A63" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25923,7 +25934,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A64" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25954,7 +25965,7 @@
         <v>550052875</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A65" s="27" t="s">
         <v>1067</v>
       </c>
@@ -25985,7 +25996,7 @@
         <v>550058154</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A66" s="27" t="s">
         <v>1067</v>
       </c>
@@ -26011,7 +26022,7 @@
         <v>10.885999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A67" s="27" t="s">
         <v>1067</v>
       </c>
@@ -26039,7 +26050,7 @@
         <v>14.238</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A68" s="27" t="s">
         <v>1067</v>
       </c>
@@ -26060,14 +26071,14 @@
       </c>
       <c r="G68" s="32">
         <f>12*F68</f>
-        <v>10.092000000000001</v>
+        <v>10.091999999999999</v>
       </c>
       <c r="H68" s="33">
         <f t="shared" si="19"/>
-        <v>10.922000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>10.921999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A69" s="27" t="s">
         <v>1067</v>
       </c>
@@ -26095,7 +26106,7 @@
         <v>14.274800000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A70" s="27" t="s">
         <v>908</v>
       </c>
@@ -26118,13 +26129,13 @@
       </c>
       <c r="H70" s="33">
         <f t="shared" ref="H70:H73" si="22">G70+14.7</f>
-        <v>200.71</v>
+        <v>200.70999999999998</v>
       </c>
       <c r="J70" s="24">
         <v>550046505</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A71" s="27" t="s">
         <v>1067</v>
       </c>
@@ -26145,14 +26156,14 @@
       </c>
       <c r="G71" s="32">
         <f t="shared" si="21"/>
-        <v>176.18700000000001</v>
+        <v>176.18699999999998</v>
       </c>
       <c r="H71" s="33">
         <f t="shared" si="22"/>
-        <v>190.887</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>190.88699999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A72" s="27" t="s">
         <v>1067</v>
       </c>
@@ -26178,7 +26189,7 @@
         <v>194.44</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A73" s="27" t="s">
         <v>1067</v>
       </c>
@@ -26206,7 +26217,7 @@
         <v>190.46899999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A74" s="31" t="s">
         <v>1082</v>
       </c>
@@ -26229,7 +26240,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A75" s="31" t="s">
         <v>1093</v>
       </c>
@@ -26255,7 +26266,7 @@
         <v>195.90299999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A76" s="27" t="s">
         <v>1067</v>
       </c>
@@ -26283,7 +26294,7 @@
         <v>10.913600000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A77" s="31" t="s">
         <v>1078</v>
       </c>
@@ -26304,14 +26315,14 @@
       </c>
       <c r="G77" s="32">
         <f>209*F77</f>
-        <v>176.18700000000001</v>
+        <v>176.18699999999998</v>
       </c>
       <c r="H77" s="33">
         <f>G77+14.7</f>
-        <v>190.887</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>190.88699999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A78" s="31" t="s">
         <v>1082</v>
       </c>
@@ -26334,7 +26345,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A79" s="31" t="s">
         <v>1071</v>
       </c>
@@ -26360,7 +26371,7 @@
         <v>11.198</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A80" s="31" t="s">
         <v>1082</v>
       </c>
@@ -26383,7 +26394,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A81" s="31" t="s">
         <v>1109</v>
       </c>
@@ -26414,7 +26425,7 @@
         <v>550043648</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A82" s="31" t="s">
         <v>1071</v>
       </c>
@@ -26442,7 +26453,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A83" s="31" t="s">
         <v>1093</v>
       </c>
@@ -26465,10 +26476,10 @@
       </c>
       <c r="H83" s="33">
         <f t="shared" ref="H83:H86" si="26">G83+14.7</f>
-        <v>191.30500000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>191.30499999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A84" s="31" t="s">
         <v>1109</v>
       </c>
@@ -26496,7 +26507,7 @@
         <v>239.166</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A85" s="31" t="s">
         <v>1093</v>
       </c>
@@ -26522,7 +26533,7 @@
         <v>19.12</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A86" s="31" t="s">
         <v>1126</v>
       </c>
@@ -26547,10 +26558,10 @@
       </c>
       <c r="H86" s="33">
         <f t="shared" si="26"/>
-        <v>193.18600000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>193.18599999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A87" s="31" t="s">
         <v>1071</v>
       </c>
@@ -26571,14 +26582,14 @@
       </c>
       <c r="G87" s="32">
         <f>20*F87</f>
-        <v>16.940000000000001</v>
+        <v>16.939999999999998</v>
       </c>
       <c r="H87" s="33">
         <f>G87+1.78</f>
         <v>18.72</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A88" s="27" t="s">
         <v>1067</v>
       </c>
@@ -26599,14 +26610,14 @@
       </c>
       <c r="G88" s="32">
         <f>12*F88</f>
-        <v>10.092000000000001</v>
+        <v>10.091999999999999</v>
       </c>
       <c r="H88" s="33">
         <f>G88+0.83</f>
-        <v>10.922000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>10.921999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A89" s="27" t="s">
         <v>1067</v>
       </c>
@@ -26634,7 +26645,7 @@
         <v>14.286</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A90" s="31" t="s">
         <v>1109</v>
       </c>
@@ -26657,10 +26668,10 @@
       </c>
       <c r="H90" s="33">
         <f>G90+1.78</f>
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>19.400000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A91" s="31" t="s">
         <v>1265</v>
       </c>
@@ -26682,7 +26693,7 @@
         <v>17610</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A92" s="31" t="s">
         <v>1126</v>
       </c>
@@ -26705,10 +26716,10 @@
       </c>
       <c r="H92" s="33">
         <f t="shared" ref="H92:H100" si="28">G92+14.7</f>
-        <v>186.08</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>186.07999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A93" s="31" t="s">
         <v>1126</v>
       </c>
@@ -26737,7 +26748,7 @@
         <v>550045087</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="94" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A94" s="31" t="s">
         <v>1126</v>
       </c>
@@ -26763,7 +26774,7 @@
         <v>196.53</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="95" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A95" s="34" t="s">
         <v>1275</v>
       </c>
@@ -26789,7 +26800,7 @@
         <v>203.845</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="96" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A96" s="31" t="s">
         <v>1126</v>
       </c>
@@ -26812,10 +26823,10 @@
       </c>
       <c r="H96" s="33">
         <f t="shared" si="28"/>
-        <v>193.18600000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>193.18599999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A97" s="31" t="s">
         <v>1126</v>
       </c>
@@ -26838,10 +26849,10 @@
       </c>
       <c r="H97" s="33">
         <f t="shared" si="28"/>
-        <v>193.60400000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>193.60399999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A98" s="31" t="s">
         <v>1126</v>
       </c>
@@ -26867,7 +26878,7 @@
         <v>194.44</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="99" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A99" s="31" t="s">
         <v>1071</v>
       </c>
@@ -26892,10 +26903,10 @@
       </c>
       <c r="H99" s="33">
         <f t="shared" si="28"/>
-        <v>191.72300000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>191.72299999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A100" s="31" t="s">
         <v>1071</v>
       </c>
@@ -26923,7 +26934,7 @@
         <v>198.202</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="101" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A101" s="27" t="s">
         <v>1067</v>
       </c>
@@ -26951,7 +26962,7 @@
         <v>14.334</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="102" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A102" s="27" t="s">
         <v>1067</v>
       </c>
@@ -26979,7 +26990,7 @@
         <v>10.958</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="103" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A103" s="27" t="s">
         <v>1082</v>
       </c>
@@ -27002,7 +27013,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="104" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A104" s="27" t="s">
         <v>1067</v>
       </c>
@@ -27028,7 +27039,7 @@
         <v>14.6828</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="105" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A105" s="27" t="s">
         <v>698</v>
       </c>
@@ -27054,7 +27065,7 @@
         <v>199.874</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="106" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A106" s="27" t="s">
         <v>698</v>
       </c>
@@ -27080,7 +27091,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="107" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A107" s="27" t="s">
         <v>193</v>
       </c>
@@ -27106,7 +27117,7 @@
         <v>19.36</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="108" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A108" s="31" t="s">
         <v>1265</v>
       </c>
@@ -27128,7 +27139,7 @@
         <v>17610</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="109" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A109" s="27" t="s">
         <v>1082</v>
       </c>
@@ -27151,7 +27162,7 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="110" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A110" s="27" t="s">
         <v>1067</v>
       </c>
@@ -27182,7 +27193,7 @@
         <v>550063126</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="111" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A111" s="27" t="s">
         <v>1067</v>
       </c>
@@ -27213,7 +27224,7 @@
         <v>550063124</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="112" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A112" s="31" t="s">
         <v>1071</v>
       </c>
@@ -27238,10 +27249,10 @@
       </c>
       <c r="H112" s="33">
         <f t="shared" ref="H112:H115" si="31">G112+14.7</f>
-        <v>199.03800000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>199.03799999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A113" s="31" t="s">
         <v>1071</v>
       </c>
@@ -27267,7 +27278,7 @@
         <v>203.636</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="114" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A114" s="31" t="s">
         <v>1093</v>
       </c>
@@ -27298,7 +27309,7 @@
         <v>550049534</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="115" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A115" s="37" t="s">
         <v>1109</v>
       </c>
@@ -27321,14 +27332,14 @@
       </c>
       <c r="H115" s="33">
         <f t="shared" si="31"/>
-        <v>198.82900000000001</v>
+        <v>198.82899999999998</v>
       </c>
       <c r="I115" s="41" t="s">
         <v>1318</v>
       </c>
       <c r="J115" s="42"/>
     </row>
-    <row r="116" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="116" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A116" s="31" t="s">
         <v>1126</v>
       </c>
@@ -27354,7 +27365,7 @@
         <v>18.86</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="117" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A117" s="31" t="s">
         <v>1126</v>
       </c>
@@ -27377,10 +27388,10 @@
       </c>
       <c r="H117" s="33">
         <f t="shared" si="33"/>
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>18.900000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A118" s="27" t="s">
         <v>1067</v>
       </c>
@@ -27401,14 +27412,14 @@
       </c>
       <c r="G118" s="32">
         <f t="shared" ref="G118:G122" si="34">209*F118</f>
-        <v>174.30600000000001</v>
+        <v>174.30599999999998</v>
       </c>
       <c r="H118" s="33">
         <f t="shared" ref="H118:H122" si="35">G118+14.7</f>
-        <v>189.006</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>189.00599999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A119" s="27" t="s">
         <v>1109</v>
       </c>
@@ -27436,7 +27447,7 @@
         <v>200.083</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="120" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A120" s="27" t="s">
         <v>318</v>
       </c>
@@ -27464,7 +27475,7 @@
         <v>196.11199999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="121" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A121" s="31" t="s">
         <v>1126</v>
       </c>
@@ -27487,10 +27498,10 @@
       </c>
       <c r="H121" s="33">
         <f t="shared" si="35"/>
-        <v>195.48500000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>195.48499999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A122" s="31" t="s">
         <v>429</v>
       </c>
@@ -27516,7 +27527,7 @@
         <v>182.94499999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="123" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A123" s="31" t="s">
         <v>1067</v>
       </c>
@@ -27547,7 +27558,7 @@
         <v>550069377</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="124" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A124" s="31" t="s">
         <v>1067</v>
       </c>
@@ -27589,7 +27600,7 @@
         <v>1338</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>1339</v>
+        <v>1529</v>
       </c>
       <c r="E125" s="30">
         <v>5.45</v>
@@ -27611,13 +27622,13 @@
         <v>1126</v>
       </c>
       <c r="B126" s="40" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C126" s="34" t="s">
         <v>1340</v>
       </c>
-      <c r="C126" s="34" t="s">
+      <c r="D126" s="31" t="s">
         <v>1341</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>1342</v>
       </c>
       <c r="E126" s="35"/>
       <c r="F126" s="31">
@@ -27632,15 +27643,15 @@
         <v>195.036</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="127" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A127" s="31" t="s">
         <v>1109</v>
       </c>
       <c r="B127" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C127" s="34" t="s">
         <v>1343</v>
-      </c>
-      <c r="C127" s="34" t="s">
-        <v>1344</v>
       </c>
       <c r="D127" s="31" t="s">
         <v>1074</v>
@@ -27661,15 +27672,15 @@
         <v>550070752</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="128" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A128" s="31" t="s">
         <v>1082</v>
       </c>
       <c r="B128" s="40" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C128" s="34" t="s">
         <v>1345</v>
-      </c>
-      <c r="C128" s="34" t="s">
-        <v>1346</v>
       </c>
       <c r="D128" s="31" t="s">
         <v>1085</v>
@@ -27687,15 +27698,15 @@
         <v>550028647</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="129" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A129" s="31" t="s">
         <v>1082</v>
       </c>
       <c r="B129" s="40" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C129" s="34" t="s">
         <v>1347</v>
-      </c>
-      <c r="C129" s="34" t="s">
-        <v>1348</v>
       </c>
       <c r="D129" s="31" t="s">
         <v>1085</v>
@@ -27713,15 +27724,15 @@
         <v>550027031</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="130" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A130" s="31" t="s">
         <v>1082</v>
       </c>
       <c r="B130" s="40" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C130" s="34" t="s">
         <v>1349</v>
-      </c>
-      <c r="C130" s="34" t="s">
-        <v>1350</v>
       </c>
       <c r="D130" s="31" t="s">
         <v>1085</v>
@@ -27739,15 +27750,15 @@
         <v>550027032</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="131" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A131" s="31" t="s">
         <v>1082</v>
       </c>
       <c r="B131" s="40" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C131" s="34" t="s">
         <v>1351</v>
-      </c>
-      <c r="C131" s="34" t="s">
-        <v>1352</v>
       </c>
       <c r="D131" s="31" t="s">
         <v>1085</v>
@@ -27770,13 +27781,13 @@
         <v>1082</v>
       </c>
       <c r="B132" s="40" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D132" s="31" t="s">
         <v>1353</v>
-      </c>
-      <c r="C132" s="34" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D132" s="31" t="s">
-        <v>1355</v>
       </c>
       <c r="E132" s="35"/>
       <c r="F132" s="31"/>
@@ -27791,15 +27802,15 @@
         <v>550027043</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="133" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A133" s="31" t="s">
         <v>1126</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D133" s="31" t="s">
         <v>1074</v>
@@ -27824,13 +27835,13 @@
         <v>1126</v>
       </c>
       <c r="B134" s="40" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C134" s="34" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D134" s="31" t="s">
         <v>1358</v>
-      </c>
-      <c r="C134" s="34" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D134" s="31" t="s">
-        <v>1360</v>
       </c>
       <c r="E134" s="30">
         <v>186</v>
@@ -27844,18 +27855,18 @@
       </c>
       <c r="H134" s="33">
         <f t="shared" si="38"/>
-        <v>195.12270000000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>195.12269999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A135" s="31" t="s">
         <v>1071</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="D135" s="31" t="s">
         <v>1074</v>
@@ -27870,18 +27881,18 @@
       </c>
       <c r="H135" s="33">
         <f t="shared" si="38"/>
-        <v>206.56200000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>206.56199999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A136" s="31" t="s">
         <v>741</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D136" s="31" t="s">
         <v>1074</v>
@@ -27901,15 +27912,15 @@
         <v>190.26</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="137" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A137" s="31" t="s">
         <v>865</v>
       </c>
       <c r="B137" s="40" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="D137" s="31" t="s">
         <v>1074</v>
@@ -27924,18 +27935,18 @@
       </c>
       <c r="H137" s="33">
         <f t="shared" si="38"/>
-        <v>200.71</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="20.100000000000001" customHeight="1">
+        <v>200.70999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A138" s="31" t="s">
         <v>1071</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="D138" s="31" t="s">
         <v>1081</v>
@@ -27955,13 +27966,13 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="18.95" customHeight="1">
+    <row r="139" spans="1:10" ht="18.95" hidden="1" customHeight="1">
       <c r="A139" s="34"/>
       <c r="B139" s="40" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D139" s="31" t="s">
         <v>1074</v>
@@ -27979,15 +27990,15 @@
         <v>207.18899999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="18.95" customHeight="1">
+    <row r="140" spans="1:10" ht="18.95" hidden="1" customHeight="1">
       <c r="A140" s="31" t="s">
         <v>1082</v>
       </c>
       <c r="B140" s="40" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="D140" s="31" t="s">
         <v>1085</v>
@@ -28002,15 +28013,15 @@
         <v>19.78</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="18.95" customHeight="1">
+    <row r="141" spans="1:10" ht="18.95" hidden="1" customHeight="1">
       <c r="A141" s="31" t="s">
         <v>1126</v>
       </c>
       <c r="B141" s="40" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C141" s="34" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="D141" s="31" t="s">
         <v>1081</v>
@@ -28030,15 +28041,15 @@
         <v>18.86</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="18.95" customHeight="1">
+    <row r="142" spans="1:10" ht="18.95" hidden="1" customHeight="1">
       <c r="A142" s="31" t="s">
         <v>1126</v>
       </c>
       <c r="B142" s="40" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C142" s="34" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="D142" s="31" t="s">
         <v>1081</v>
@@ -28055,7 +28066,7 @@
       </c>
       <c r="H142" s="33">
         <f t="shared" si="40"/>
-        <v>18.899999999999999</v>
+        <v>18.900000000000002</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="18.95" customHeight="1">
@@ -28063,13 +28074,13 @@
         <v>1082</v>
       </c>
       <c r="B143" s="40" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D143" s="34" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E143" s="35"/>
       <c r="F143" s="34"/>
@@ -28081,15 +28092,15 @@
         <v>194.7</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="18.95" customHeight="1">
+    <row r="144" spans="1:10" ht="18.95" hidden="1" customHeight="1">
       <c r="A144" s="31" t="s">
         <v>1067</v>
       </c>
       <c r="B144" s="40" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D144" s="31" t="s">
         <v>1074</v>
@@ -28106,18 +28117,18 @@
       </c>
       <c r="H144" s="33">
         <f>G144+14.7</f>
-        <v>191.096</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="18.95" customHeight="1">
+        <v>191.09599999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="18.95" hidden="1" customHeight="1">
       <c r="A145" s="31" t="s">
         <v>1109</v>
       </c>
       <c r="B145" s="40" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="D145" s="34" t="s">
         <v>1074</v>
@@ -28142,13 +28153,13 @@
         <v>1082</v>
       </c>
       <c r="B146" s="40" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>1384</v>
+        <v>1531</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>1339</v>
+        <v>1529</v>
       </c>
       <c r="E146" s="35">
         <v>5.63</v>
@@ -28156,22 +28167,22 @@
       <c r="F146" s="34"/>
       <c r="G146" s="43">
         <f>12*0.4</f>
-        <v>4.8</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="H146" s="33">
         <f>G146+0.83</f>
-        <v>5.63</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="18.95" customHeight="1">
+        <v>5.6300000000000008</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="18.95" hidden="1" customHeight="1">
       <c r="A147" s="31" t="s">
         <v>1109</v>
       </c>
       <c r="B147" s="40" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="D147" s="34" t="s">
         <v>1081</v>
@@ -28184,11 +28195,11 @@
       </c>
       <c r="G147" s="32">
         <f>20*F147</f>
-        <v>21.52</v>
+        <v>21.520000000000003</v>
       </c>
       <c r="H147" s="33">
         <f>G147+1.78</f>
-        <v>23.3</v>
+        <v>23.300000000000004</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="18.95" customHeight="1">
@@ -28196,13 +28207,13 @@
         <v>1082</v>
       </c>
       <c r="B148" s="40" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>1388</v>
+        <v>1532</v>
       </c>
       <c r="D148" s="34" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E148" s="35"/>
       <c r="F148" s="21"/>
@@ -28219,21 +28230,22 @@
         <v>1082</v>
       </c>
       <c r="B149" s="40" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="C149" s="34" t="s">
-        <v>1390</v>
+        <v>1533</v>
       </c>
       <c r="D149" s="34" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="E149" s="35"/>
       <c r="F149" s="34"/>
       <c r="G149" s="43">
         <v>170</v>
       </c>
-      <c r="H149" s="33" t="s">
-        <v>1539</v>
+      <c r="H149" s="33">
+        <f>G149+14.7</f>
+        <v>184.7</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="18.95" customHeight="1">
@@ -28241,32 +28253,33 @@
         <v>1082</v>
       </c>
       <c r="B150" s="40" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="C150" s="34" t="s">
-        <v>1393</v>
+        <v>1534</v>
       </c>
       <c r="D150" s="34" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="E150" s="35"/>
       <c r="F150" s="34"/>
       <c r="G150" s="43">
         <v>170</v>
       </c>
-      <c r="H150" s="33" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="18.95" customHeight="1">
+      <c r="H150" s="33">
+        <f>G150+14.7</f>
+        <v>184.7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="18.95" hidden="1" customHeight="1">
       <c r="A151" s="31" t="s">
         <v>655</v>
       </c>
       <c r="B151" s="40" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="D151" s="34" t="s">
         <v>1074</v>
@@ -28281,18 +28294,18 @@
       </c>
       <c r="H151" s="33">
         <f>G151+14.7</f>
-        <v>187.54300000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="18.95" customHeight="1">
+        <v>187.54299999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="18.95" hidden="1" customHeight="1">
       <c r="A152" s="31" t="s">
         <v>1071</v>
       </c>
       <c r="B152" s="40" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="D152" s="34" t="s">
         <v>1081</v>
@@ -28310,15 +28323,15 @@
         <v>19.34</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="18.95" customHeight="1">
+    <row r="153" spans="1:8" ht="18.95" hidden="1" customHeight="1">
       <c r="A153" s="31" t="s">
         <v>1071</v>
       </c>
       <c r="B153" s="40" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="C153" s="34" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="D153" s="34" t="s">
         <v>1074</v>
@@ -28336,15 +28349,15 @@
         <v>192.14099999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="18.95" customHeight="1">
+    <row r="154" spans="1:8" ht="18.95" hidden="1" customHeight="1">
       <c r="A154" s="31" t="s">
         <v>1071</v>
       </c>
       <c r="B154" s="40" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="D154" s="34" t="s">
         <v>1081</v>
@@ -28362,15 +28375,15 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="18.95" customHeight="1">
+    <row r="155" spans="1:8" ht="18.95" hidden="1" customHeight="1">
       <c r="A155" s="31" t="s">
         <v>1071</v>
       </c>
       <c r="B155" s="40" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="C155" s="34" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="D155" s="34" t="s">
         <v>1074</v>
@@ -28393,13 +28406,13 @@
         <v>1082</v>
       </c>
       <c r="B156" s="40" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>1405</v>
+        <v>1535</v>
       </c>
       <c r="D156" s="34" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E156" s="35"/>
       <c r="F156" s="34"/>
@@ -28411,15 +28424,15 @@
         <v>194.7</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="18.95" customHeight="1">
+    <row r="157" spans="1:8" ht="18.95" hidden="1" customHeight="1">
       <c r="A157" s="31" t="s">
         <v>1071</v>
       </c>
       <c r="B157" s="40" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="D157" s="34" t="s">
         <v>1070</v>
@@ -28437,15 +28450,15 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="18.95" customHeight="1">
+    <row r="158" spans="1:8" ht="18.95" hidden="1" customHeight="1">
       <c r="A158" s="31" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="B158" s="40" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="D158" s="34" t="s">
         <v>1146</v>
@@ -28465,15 +28478,15 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="18.95" customHeight="1">
+    <row r="159" spans="1:8" ht="18.95" hidden="1" customHeight="1">
       <c r="A159" s="31" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="B159" s="40" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="D159" s="34" t="s">
         <v>1146</v>
@@ -28493,15 +28506,15 @@
         <v>11.125999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="18" customHeight="1">
+    <row r="160" spans="1:8" ht="18" hidden="1" customHeight="1">
       <c r="A160" s="31" t="s">
         <v>1071</v>
       </c>
       <c r="B160" s="40" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="D160" s="34" t="s">
         <v>1074</v>
@@ -28514,22 +28527,22 @@
       </c>
       <c r="G160" s="32">
         <f t="shared" ref="G160:G161" si="42">209*F160</f>
-        <v>189.77199999999999</v>
+        <v>189.77200000000002</v>
       </c>
       <c r="H160" s="33">
         <f t="shared" ref="H160:H161" si="43">G160+14.7</f>
         <v>204.47200000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="18" customHeight="1">
+    <row r="161" spans="1:8" ht="18" hidden="1" customHeight="1">
       <c r="A161" s="31" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="B161" s="40" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="C161" s="34" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="D161" s="34" t="s">
         <v>1074</v>
@@ -28547,15 +28560,15 @@
         <v>196.321</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="162" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A162" s="27" t="s">
         <v>908</v>
       </c>
       <c r="B162" s="40" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="D162" s="27" t="s">
         <v>1081</v>
@@ -28570,40 +28583,41 @@
       </c>
       <c r="H162" s="33">
         <f>G162+1.78</f>
-        <v>19.579999999999998</v>
+        <v>19.580000000000002</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A163" s="27" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="B163" s="40" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>1422</v>
+        <v>1536</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="E163" s="35"/>
       <c r="F163" s="31"/>
       <c r="G163" s="32">
         <v>190</v>
       </c>
-      <c r="H163" s="33" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="H163" s="33">
+        <f>G163+14.7</f>
+        <v>204.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A164" s="27" t="s">
         <v>1067</v>
       </c>
       <c r="B164" s="40" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="D164" s="27" t="s">
         <v>1074</v>
@@ -28620,18 +28634,18 @@
       </c>
       <c r="H164" s="33">
         <f t="shared" ref="H164:H166" si="45">G164+14.7</f>
-        <v>189.42400000000001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="20.100000000000001" customHeight="1">
+        <v>189.42399999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A165" s="27" t="s">
         <v>1067</v>
       </c>
       <c r="B165" s="40" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="C165" s="29" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="D165" s="27" t="s">
         <v>1074</v>
@@ -28649,15 +28663,15 @@
         <v>189.44489999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="166" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A166" s="27" t="s">
         <v>1126</v>
       </c>
       <c r="B166" s="40" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="D166" s="27" t="s">
         <v>1074</v>
@@ -28675,24 +28689,30 @@
         <v>196.53</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="21" customHeight="1">
+    <row r="167" spans="1:8" ht="21" hidden="1" customHeight="1">
       <c r="A167" s="31" t="s">
         <v>1126</v>
       </c>
       <c r="B167" s="30" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="C167" s="34" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="D167" s="27" t="s">
         <v>1074</v>
       </c>
       <c r="E167" s="44"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="44" t="s">
-        <v>1538</v>
+      <c r="F167" s="97">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G167" s="97">
+        <f>209*F167</f>
+        <v>172.42499999999998</v>
+      </c>
+      <c r="H167" s="35">
+        <f>G167+14.7</f>
+        <v>187.12499999999997</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -28700,13 +28720,13 @@
         <v>1067</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>1433</v>
+        <v>1537</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="E168" s="35"/>
       <c r="F168" s="31">
@@ -28721,28 +28741,47 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="169" spans="1:8" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A169" s="31" t="s">
         <v>1071</v>
       </c>
       <c r="B169" s="30" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="D169" s="27" t="s">
         <v>1074</v>
       </c>
       <c r="E169" s="35"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="32"/>
-      <c r="H169" s="33" t="s">
-        <v>1538</v>
+      <c r="F169" s="31">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G169" s="32">
+        <f>209*F169</f>
+        <v>187.05500000000001</v>
+      </c>
+      <c r="H169" s="33">
+        <f>G169+14.7</f>
+        <v>201.755</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J169" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:J169" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="12*0.4kg/CTN"/>
+        <filter val="170KG/DRUM"/>
+        <filter val="180KG/DRUM"/>
+        <filter val="180KG/PAIL"/>
+        <filter val="190KG/DRUM"/>
+        <filter val="208.1L/DRUM"/>
+        <filter val="208L/DRUM"/>
+        <filter val="3*5L/CTN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -28769,97 +28808,97 @@
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="54.95" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="18" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="20" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="20" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="F3" s="95" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="20" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="20" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -28868,13 +28907,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="20" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -28883,16 +28922,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="20" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -28900,16 +28939,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="20" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -28917,16 +28956,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="20" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -28934,16 +28973,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="20" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -28951,13 +28990,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="20" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28966,13 +29005,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="20" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28981,13 +29020,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="20" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29050,97 +29089,97 @@
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="54.95" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="18" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="20" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="20" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="20" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="20" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -29149,13 +29188,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="20" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -29164,13 +29203,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="20" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -29287,65 +29326,65 @@
     </row>
     <row r="39" spans="1:7" ht="54.95" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="18" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="20" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="20" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="20" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -29354,13 +29393,13 @@
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -29500,118 +29539,118 @@
     </row>
     <row r="58" spans="1:7" ht="54.95" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="18" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="20" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="20" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="20" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="20" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="20" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
@@ -29620,13 +29659,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="20" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
@@ -29635,13 +29674,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="20" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -29787,126 +29826,126 @@
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="57" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>1519</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1521</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1522</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>1523</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1524</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1525</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1526</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="S1" s="13" t="s">
+        <v>1510</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>1527</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="U1" s="13" t="s">
         <v>1528</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1530</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="S1" s="13" t="s">
+      <c r="V1" s="13" t="s">
+        <v>1512</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>1513</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>1514</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>1517</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AC1" s="13" t="s">
         <v>1519</v>
       </c>
-      <c r="T1" s="13" t="s">
-        <v>1536</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>1537</v>
-      </c>
-      <c r="V1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AE1" s="13" t="s">
         <v>1521</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>1522</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AG1" s="13" t="s">
         <v>1523</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>1524</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>1525</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>1526</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>1527</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>1528</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>1529</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>1533</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>1534</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>1535</v>
       </c>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
       <c r="AM1" s="16"/>
     </row>
     <row r="2" spans="1:39" ht="24">
-      <c r="A2" s="98" t="s">
-        <v>1444</v>
+      <c r="A2" s="99" t="s">
+        <v>1435</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
@@ -29923,14 +29962,14 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="99" t="s">
-        <v>1444</v>
+      <c r="S2" s="100" t="s">
+        <v>1435</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="V2" s="15"/>
       <c r="W2" s="15"/>
@@ -29952,12 +29991,12 @@
       <c r="AM2" s="15"/>
     </row>
     <row r="3" spans="1:39" ht="24">
-      <c r="A3" s="98"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="5" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -29974,12 +30013,12 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="99"/>
+      <c r="S3" s="100"/>
       <c r="T3" s="15" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="U3" s="96" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
@@ -30001,12 +30040,12 @@
       <c r="AM3" s="15"/>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="98"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="5" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -30023,12 +30062,12 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="99"/>
+      <c r="S4" s="100"/>
       <c r="T4" s="15" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
@@ -30050,12 +30089,12 @@
       <c r="AM4" s="15"/>
     </row>
     <row r="5" spans="1:39" ht="24">
-      <c r="A5" s="98"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="5" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
@@ -30072,7 +30111,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="99"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
@@ -30095,12 +30134,12 @@
       <c r="AM5" s="15"/>
     </row>
     <row r="6" spans="1:39" ht="36">
-      <c r="A6" s="98"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="5" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
@@ -30117,7 +30156,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="99"/>
+      <c r="S6" s="100"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
@@ -30140,15 +30179,15 @@
       <c r="AM6" s="15"/>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="98"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="5" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
@@ -30164,7 +30203,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="99"/>
+      <c r="S7" s="100"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
@@ -30187,15 +30226,15 @@
       <c r="AM7" s="15"/>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="98"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="5" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
@@ -30211,7 +30250,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="99"/>
+      <c r="S8" s="100"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -30234,15 +30273,15 @@
       <c r="AM8" s="15"/>
     </row>
     <row r="9" spans="1:39" ht="24">
-      <c r="A9" s="98"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="5" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
@@ -30258,7 +30297,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="99"/>
+      <c r="S9" s="100"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
@@ -30281,15 +30320,15 @@
       <c r="AM9" s="15"/>
     </row>
     <row r="10" spans="1:39" ht="24">
-      <c r="A10" s="98"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="5" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -30305,7 +30344,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="99"/>
+      <c r="S10" s="100"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
@@ -30328,12 +30367,12 @@
       <c r="AM10" s="15"/>
     </row>
     <row r="11" spans="1:39" ht="36">
-      <c r="A11" s="98"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="5" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -30350,7 +30389,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="99"/>
+      <c r="S11" s="100"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
@@ -30414,14 +30453,14 @@
       <c r="AM12" s="12"/>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" s="98" t="s">
-        <v>1448</v>
+      <c r="A13" s="99" t="s">
+        <v>1439</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
@@ -30461,12 +30500,12 @@
       <c r="AM13" s="15"/>
     </row>
     <row r="14" spans="1:39" ht="36">
-      <c r="A14" s="98"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="6" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -30506,12 +30545,12 @@
       <c r="AM14" s="15"/>
     </row>
     <row r="15" spans="1:39" ht="36">
-      <c r="A15" s="98"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="6" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -30551,12 +30590,12 @@
       <c r="AM15" s="15"/>
     </row>
     <row r="16" spans="1:39" ht="24">
-      <c r="A16" s="98"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="6" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -30596,12 +30635,12 @@
       <c r="AM16" s="15"/>
     </row>
     <row r="17" spans="1:39" ht="24">
-      <c r="A17" s="98"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="6" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -30641,12 +30680,12 @@
       <c r="AM17" s="15"/>
     </row>
     <row r="18" spans="1:39">
-      <c r="A18" s="98"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="6" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
